--- a/BDD_materiaux.xlsx
+++ b/BDD_materiaux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amark\PycharmProjects\PipeHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CBA1C06-8A24-4EA0-9D66-080C7A70CA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD88B0DE-7B3E-438C-837B-79031DA9A7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="230" yWindow="1170" windowWidth="14400" windowHeight="8170" xr2:uid="{EA5947BA-C433-4438-B3A0-8CEF39250B97}"/>
+    <workbookView xWindow="340" yWindow="1170" windowWidth="14400" windowHeight="8170" xr2:uid="{EA5947BA-C433-4438-B3A0-8CEF39250B97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Rugosité</t>
   </si>
   <si>
-    <t>Conduites étirées</t>
-  </si>
-  <si>
     <t>Conduites en PVC et polyéthylène</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Conduits maçonnés</t>
+  </si>
+  <si>
+    <t>Conduites étirées : aluminium, cuivre, …</t>
   </si>
 </sst>
 </file>
@@ -439,10 +439,13 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="42.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -454,7 +457,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>1.5E-3</v>
@@ -462,7 +465,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>7.0000000000000001E-3</v>
@@ -470,7 +473,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>4.4999999999999998E-2</v>
@@ -478,7 +481,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>7.4999999999999997E-2</v>
@@ -486,7 +489,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0.125</v>
@@ -494,7 +497,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0.15</v>
@@ -502,7 +505,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0.15</v>
@@ -510,7 +513,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0.6</v>
@@ -518,7 +521,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0.6</v>
@@ -526,7 +529,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0.5</v>
@@ -534,7 +537,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1.3</v>
@@ -542,7 +545,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1.5</v>
@@ -550,7 +553,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -558,7 +561,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -566,7 +569,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>4</v>

--- a/BDD_materiaux.xlsx
+++ b/BDD_materiaux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amark\PycharmProjects\PipeHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD88B0DE-7B3E-438C-837B-79031DA9A7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58DABB3-95A5-4E24-9212-214A9CD4B112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="1170" windowWidth="14400" windowHeight="8170" xr2:uid="{EA5947BA-C433-4438-B3A0-8CEF39250B97}"/>
+    <workbookView xWindow="4910" yWindow="110" windowWidth="14400" windowHeight="8170" xr2:uid="{EA5947BA-C433-4438-B3A0-8CEF39250B97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Matériaux</t>
   </si>
@@ -42,49 +42,55 @@
     <t>Rugosité</t>
   </si>
   <si>
-    <t>Conduites en PVC et polyéthylène</t>
-  </si>
-  <si>
-    <t>Tuyauterie en acier du commmerce</t>
-  </si>
-  <si>
-    <t>Conduites en amiante-ciment</t>
-  </si>
-  <si>
-    <t>Tuyauteries en fonte asphaltées</t>
-  </si>
-  <si>
-    <t>Conduits en tçole d'acier agrafés</t>
-  </si>
-  <si>
-    <t>Tuyauteries en acier galvanisé</t>
-  </si>
-  <si>
-    <t>Tuyauteries en acier rouillées</t>
-  </si>
-  <si>
-    <t>Conduits en bois</t>
-  </si>
-  <si>
-    <t>Tuyauteries en fonte</t>
-  </si>
-  <si>
-    <t>Conduits souples agrafés en spirale</t>
-  </si>
-  <si>
-    <t>Conduits treillis métallique et enduit</t>
-  </si>
-  <si>
-    <t>Tuyauteries en acier très rouillées</t>
-  </si>
-  <si>
-    <t>Conduits en béton brut de décoffrage</t>
-  </si>
-  <si>
-    <t>Conduits maçonnés</t>
-  </si>
-  <si>
-    <t>Conduites étirées : aluminium, cuivre, …</t>
+    <t>cuivre, plomb, laiton, inox</t>
+  </si>
+  <si>
+    <t>PVC</t>
+  </si>
+  <si>
+    <t>acier inox</t>
+  </si>
+  <si>
+    <t>tube acier du commerce</t>
+  </si>
+  <si>
+    <t>acier étiré</t>
+  </si>
+  <si>
+    <t>acier soudé</t>
+  </si>
+  <si>
+    <t>acier galvanisé</t>
+  </si>
+  <si>
+    <t>acier rouillé</t>
+  </si>
+  <si>
+    <t>fonte usagée</t>
+  </si>
+  <si>
+    <t>fonte neuve</t>
+  </si>
+  <si>
+    <t>fonte incrustée</t>
+  </si>
+  <si>
+    <t>tôle ou fonte asphaltée</t>
+  </si>
+  <si>
+    <t>ciment bien lissé</t>
+  </si>
+  <si>
+    <t>béton ordinaire</t>
+  </si>
+  <si>
+    <t>béton grossier</t>
+  </si>
+  <si>
+    <t>bois bien raboté</t>
+  </si>
+  <si>
+    <t>bois ordinaire</t>
   </si>
 </sst>
 </file>
@@ -120,8 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70E646B-A065-4AEF-B605-A09C22EABE56}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,55 +464,55 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>1.5E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>7.0000000000000001E-3</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>4.4999999999999998E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0.125</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>0.15</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0.15</v>
@@ -513,18 +520,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -532,47 +539,63 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>1.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>1.5</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/BDD_materiaux.xlsx
+++ b/BDD_materiaux.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amark\PycharmProjects\PipeHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58DABB3-95A5-4E24-9212-214A9CD4B112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3974BD6E-2855-4AE1-9C70-64BB94010084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4910" yWindow="110" windowWidth="14400" windowHeight="8170" xr2:uid="{EA5947BA-C433-4438-B3A0-8CEF39250B97}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Matériaux</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>bois ordinaire</t>
+  </si>
+  <si>
+    <t>aluminium</t>
+  </si>
+  <si>
+    <t>Polyéthylène</t>
   </si>
 </sst>
 </file>
@@ -443,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70E646B-A065-4AEF-B605-A09C22EABE56}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -598,6 +604,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>2E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
